--- a/data/income_statement/1digit/size/G_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/G_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>143113780.52238</v>
+        <v>144175296.07509</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>160752807.0022501</v>
+        <v>161574809.16167</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>192564905.41292</v>
+        <v>194196726.24429</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>214671045.27011</v>
+        <v>217354312.86628</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>300597738.7942801</v>
+        <v>305622083.94549</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>324855597.69211</v>
+        <v>331901227.88447</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>331185612.5600701</v>
+        <v>342212663.76354</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>342014566.2013299</v>
+        <v>353174312.4768401</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>405888673.8597899</v>
+        <v>418282417.5697601</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>734069502.8158201</v>
+        <v>744458020.2884898</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>827664548.1302497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>868259038.15667</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>947289311.464</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>126797913.72602</v>
+        <v>127587686.2946</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>142903228.7001</v>
+        <v>143517394.56044</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>169875590.13324</v>
+        <v>171181278.53135</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>191655672.12929</v>
+        <v>193871362.1394801</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>267927456.79968</v>
+        <v>272320362.09868</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>287338213.8836899</v>
+        <v>293555373.3016201</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>291839670.21671</v>
+        <v>301328126.55619</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>304222305.80262</v>
+        <v>313854323.96978</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>362001397.3372899</v>
+        <v>372761689.55941</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>631446061.95832</v>
+        <v>639642260.53425</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>707444955.4969699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>744401802.88322</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>813435426.317</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>14002792.96426</v>
+        <v>14240319.8295</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>15332765.53895</v>
+        <v>15520488.0754</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>19733700.27703</v>
+        <v>20006429.79646</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>19997724.94950999</v>
+        <v>20404356.58883</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>28343420.88099</v>
+        <v>28879700.63811</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>33144824.57933</v>
+        <v>33844945.02379999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>34693370.42074999</v>
+        <v>36011259.00899</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>32944238.55217</v>
+        <v>34229323.35264</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>38756973.87688</v>
+        <v>40073827.87195001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>92414875.72623</v>
+        <v>94462143.47087</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>108998957.85869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>112153777.93758</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>121969316.456</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2313073.8321</v>
+        <v>2347289.95099</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2516812.7632</v>
+        <v>2536926.52583</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2955615.00265</v>
+        <v>3009017.91648</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3017648.191310001</v>
+        <v>3078594.13797</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4326861.113609999</v>
+        <v>4422021.208699999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4372559.229090001</v>
+        <v>4500909.55905</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4652571.922609999</v>
+        <v>4873278.198360002</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4848021.84654</v>
+        <v>5090665.15442</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>5130302.645620001</v>
+        <v>5446900.1384</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>10208565.13127</v>
+        <v>10353616.28337</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>11220634.77459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11703457.33587</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>11884568.691</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2258647.08652</v>
+        <v>2342460.94391</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2230065.62215</v>
+        <v>2283715.88381</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2527628.26527</v>
+        <v>2620867.63669</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2677389.10074</v>
+        <v>2794458.16026</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4045859.64581</v>
+        <v>4170052.10234</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4399913.5923</v>
+        <v>5198891.984440001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4251194.0595</v>
+        <v>4518937.58056</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6170301.189429998</v>
+        <v>6591566.427959999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>19614200.6214</v>
+        <v>19876691.77299</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>12705279.87652</v>
+        <v>13070574.36422</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>18543105.96005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34624234.97872999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>25231156.422</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1220577.7128</v>
+        <v>1269920.85345</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1217429.07799</v>
+        <v>1250689.277</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1422740.32144</v>
+        <v>1471882.59896</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1610754.83465</v>
+        <v>1668106.5917</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2206535.13424</v>
+        <v>2316876.30925</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2702007.08637</v>
+        <v>3450889.79184</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2602159.27163</v>
+        <v>2771405.53495</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4503837.182790001</v>
+        <v>4831329.607029999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>17857674.81582</v>
+        <v>18013107.33449</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7671398.63871</v>
+        <v>7864201.800669999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>13291565.75359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>29074261.0396</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>19478424.452</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>873744.7446100001</v>
+        <v>905359.9629100001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>845240.9139500002</v>
+        <v>868137.65998</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>914177.69605</v>
+        <v>955987.18281</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>889757.54927</v>
+        <v>930578.37153</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1526646.46414</v>
+        <v>1526623.38531</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1353998.62734</v>
+        <v>1396640.26318</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1265238.95631</v>
+        <v>1346424.49309</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1207958.71938</v>
+        <v>1289656.59207</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1229027.05374</v>
+        <v>1316037.27362</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3251810.931520001</v>
+        <v>3402612.97395</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3551871.44461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3796997.4831</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3663678.958</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>164324.62911</v>
+        <v>167180.12755</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>167395.63021</v>
+        <v>164888.94683</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>190710.24778</v>
+        <v>192997.85492</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>176876.71682</v>
+        <v>195773.19703</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>312678.04743</v>
+        <v>326552.40778</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>343907.87859</v>
+        <v>351361.92942</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>383795.83156</v>
+        <v>401107.55252</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>458505.2872600001</v>
+        <v>470580.22886</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>527498.75184</v>
+        <v>547547.1648799999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1782070.30629</v>
+        <v>1803759.5896</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1699668.76185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1752976.45603</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2089053.012</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>140855133.43586</v>
+        <v>141832835.13118</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>158522741.3801</v>
+        <v>159291093.27786</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>190037277.14765</v>
+        <v>191575858.6076</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>211993656.16937</v>
+        <v>214559854.70602</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>296551879.14847</v>
+        <v>301452031.8431501</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>320455684.0998099</v>
+        <v>326702335.90003</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>326934418.5005699</v>
+        <v>337693726.1829801</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>335844265.0118999</v>
+        <v>346582746.04888</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>386274473.2383901</v>
+        <v>398405725.79677</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>721364222.9393001</v>
+        <v>731387445.9242699</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>809121442.1702002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>833634803.17794</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>922058155.0420001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>124833066.20173</v>
+        <v>125654409.70859</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>141045993.64788</v>
+        <v>141730719.71118</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>169814506.72827</v>
+        <v>171130516.37829</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>189976003.27965</v>
+        <v>192215522.49703</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>265751666.81906</v>
+        <v>270072521.80916</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>287030421.3417401</v>
+        <v>292521053.85455</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>291253582.3022301</v>
+        <v>300585426.04216</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>298233880.91221</v>
+        <v>307395432.8487399</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>344923132.22426</v>
+        <v>355136556.5418199</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>647737414.1149901</v>
+        <v>656802594.88992</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>728929502.16989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>751071762.9842401</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>833629829.923</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5744297.168769999</v>
+        <v>5819350.674469999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>6648035.28043</v>
+        <v>6696066.192829999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>7860735.6672</v>
+        <v>8014924.91626</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>13802689.55464</v>
+        <v>13958400.53809</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>11878945.59337</v>
+        <v>12126698.75877</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>12563384.07107</v>
+        <v>12924665.95133</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>13004794.28587</v>
+        <v>13646119.48886</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>14867047.5641</v>
+        <v>15737539.83127</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>17121754.39784</v>
+        <v>18174812.99379</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>37379998.02246999</v>
+        <v>38200241.2887</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>38210087.83392001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>39776942.6821</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>45522382.425</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>115816222.54249</v>
+        <v>116509236.10052</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>130689385.94864</v>
+        <v>131303179.13582</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>157440611.19625</v>
+        <v>158545018.75253</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>171146003.59424</v>
+        <v>173178660.72591</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>247653958.60787</v>
+        <v>251563947.51083</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>267600947.10431</v>
+        <v>272555745.04559</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>270763497.60306</v>
+        <v>279170915.0958899</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>275419619.66179</v>
+        <v>283340066.26568</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>318034769.0638901</v>
+        <v>326874319.46781</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>595058463.8313899</v>
+        <v>602834617.01118</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>674455415.68962</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>694331117.75439</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>768076504.103</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3086768.506109999</v>
+        <v>3124312.1008</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3495009.74381</v>
+        <v>3509331.39716</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4147048.84709</v>
+        <v>4191457.49067</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4730633.404740001</v>
+        <v>4772283.044650001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5838422.31005</v>
+        <v>5967218.864229999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6402119.15165</v>
+        <v>6542671.783530001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6489353.179990001</v>
+        <v>6733598.63049</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7295652.446729999</v>
+        <v>7570398.95731</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8888322.89641</v>
+        <v>9151984.651889998</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>13407643.91145</v>
+        <v>13869368.28398</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>14403570.15268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15019639.98087</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>17590369.002</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>185777.98436</v>
+        <v>201510.8328</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>213562.675</v>
+        <v>222142.98537</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>366111.0177300001</v>
+        <v>379115.21883</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>296676.72603</v>
+        <v>306178.18838</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>380340.30777</v>
+        <v>414656.6753299999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>463971.0147100001</v>
+        <v>497971.0741</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>995937.2333099999</v>
+        <v>1034792.82692</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>651561.2395899999</v>
+        <v>747427.79448</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>878285.8661199999</v>
+        <v>935439.4283299999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1891308.34968</v>
+        <v>1898368.30606</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1860428.49367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1944062.56688</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2440574.393</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>16022067.23413</v>
+        <v>16178425.42259</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>17476747.73222</v>
+        <v>17560373.56668</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>20222770.41937999</v>
+        <v>20445342.22931</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>22017652.88972</v>
+        <v>22344332.20899</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>30800212.32941001</v>
+        <v>31379510.03399</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>33425262.75807</v>
+        <v>34181282.04548</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>35680836.19834001</v>
+        <v>37108300.14081999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>37610384.09969001</v>
+        <v>39187313.20014</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>41351341.01413</v>
+        <v>43269169.25494999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>73626808.82431002</v>
+        <v>74584851.03434999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>80191940.00031</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>82563040.19369999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>88428325.119</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>12516441.17704</v>
+        <v>12573824.1231</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>13619022.95233</v>
+        <v>13661161.83069</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>15737879.41806</v>
+        <v>15869647.34387</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>17468591.30103</v>
+        <v>17681546.91145</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>24077120.0293</v>
+        <v>24355598.75288</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>26129469.05257</v>
+        <v>26490909.87271</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>27671674.40305</v>
+        <v>28437453.60206</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>29975340.96772999</v>
+        <v>30807522.64491</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>32167973.60315001</v>
+        <v>33046828.52689</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>53060108.53958999</v>
+        <v>53199898.33605999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>59979788.52980001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>60726030.30155</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>62288173.905</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>30289.25565</v>
+        <v>30648.73811</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>27893.90903</v>
+        <v>29096.67212000001</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>34684.94314</v>
+        <v>34458.65972</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>34430.09237</v>
+        <v>34614.91571</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>44614.86376</v>
+        <v>45633.06615</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>54076.28127000001</v>
+        <v>57560.63358000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>53633.21016</v>
+        <v>58160.67223</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>49271.16815999999</v>
+        <v>55889.22098999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>68404.71068</v>
+        <v>69524.87286000002</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>120916.0693</v>
+        <v>128018.41551</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>191252.86118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>186595.7764</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>152385.07</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4502203.69499</v>
+        <v>4581803.545350001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4864553.82082</v>
+        <v>4929234.25588</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5608613.644940001</v>
+        <v>5744498.621479999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6215821.16383</v>
+        <v>6363911.46651</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8959612.61717</v>
+        <v>9213828.958509998</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>9584834.909799999</v>
+        <v>9888480.324940003</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10060490.37481</v>
+        <v>10542146.1716</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>10587318.58286</v>
+        <v>11138831.46374</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>11406752.98975</v>
+        <v>11928198.60457</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>22297337.9112</v>
+        <v>22683479.5985</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>25396741.63911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26241719.03295</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>26408436.011</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>7983948.226400001</v>
+        <v>7961371.839639998</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>8726575.222480001</v>
+        <v>8702830.902690001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>10094580.82998</v>
+        <v>10090690.06267</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>11218340.04483</v>
+        <v>11283020.52923</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>15072892.54837</v>
+        <v>15096136.72822</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>16490557.8615</v>
+        <v>16544868.91419</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>17557550.81808</v>
+        <v>17837146.75823</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>19338751.21671</v>
+        <v>19612801.96018</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>20692815.90272</v>
+        <v>21049105.04946</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>30641854.55909</v>
+        <v>30388400.32205</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>34391794.02951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>34297715.4922</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>35727352.824</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3505626.05709</v>
+        <v>3604601.29949</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3857724.779889999</v>
+        <v>3899211.735989999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4484891.00132</v>
+        <v>4575694.885439999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4549061.58869</v>
+        <v>4662785.297540001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6723092.300109999</v>
+        <v>7023911.281110001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>7295793.705500001</v>
+        <v>7690372.17277</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>8009161.79529</v>
+        <v>8670846.538760001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>7635043.131959999</v>
+        <v>8379790.555229998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>9183367.410979999</v>
+        <v>10222340.72806</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>20566700.28471999</v>
+        <v>21384952.69829</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>20212151.47051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21837009.89215</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>26140151.214</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1376734.7949</v>
+        <v>1546946.15606</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1330942.30195</v>
+        <v>1659222.25552</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1697235.92943</v>
+        <v>2274961.62377</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1330775.56052</v>
+        <v>1698064.45666</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2587689.022330001</v>
+        <v>3220717.01921</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2552315.532480001</v>
+        <v>3288596.32318</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3791479.691169999</v>
+        <v>4835951.601729998</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3312962.76588</v>
+        <v>4837761.84743</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3707775.89103</v>
+        <v>4778580.94633</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>20491819.3211</v>
+        <v>22981222.13698</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>11990200.62868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>13641452.25491</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>20385902.261</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>13336.43608</v>
+        <v>23786.99498</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>14719.85724</v>
+        <v>98730.41948000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>16367.07181</v>
+        <v>76941.42874000002</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>12823.43166</v>
+        <v>62222.19321999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>30972.67059</v>
+        <v>146903.82605</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>27212.43867</v>
+        <v>99084.50766</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>30030.13073</v>
+        <v>33363.12479000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>47167.89863</v>
+        <v>106544.65183</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>45610.12822999999</v>
+        <v>76508.08344999998</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>119499.04047</v>
+        <v>251705.7793</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>129045.68949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>126008.38077</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>129539.21</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>9299.07008</v>
+        <v>19277.96969</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9450.289369999999</v>
+        <v>9698.18713</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>8509.061889999999</v>
+        <v>119111.62074</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2364.90274</v>
+        <v>14558.13971</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>7624.89254</v>
+        <v>6507.91276</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>6037.79649</v>
+        <v>57008.58174999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>12488.13775</v>
+        <v>68056.05998999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>8539.09676</v>
+        <v>52657.45638</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>8988.0365</v>
+        <v>62136.6853</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>55705.76052</v>
+        <v>102025.71955</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>37198.52790000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>215399.12832</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>71416.69100000001</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>121758.85977</v>
+        <v>132049.31226</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>102184.62332</v>
+        <v>117127.67501</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>104194.40069</v>
+        <v>152988.14541</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>125628.32336</v>
+        <v>181353.99525</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>176312.78338</v>
+        <v>224179.73139</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>219304.52973</v>
+        <v>304298.6037</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>246166.24864</v>
+        <v>291606.09519</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>250372.63591</v>
+        <v>373744.4806100001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>315394.1514999999</v>
+        <v>456392.7445400001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1061686.42352</v>
+        <v>1277048.72239</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1235673.64024</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1463432.14805</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1173673.072</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>59454.11749</v>
+        <v>58719.35468</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>56971.44212</v>
+        <v>58828.92927</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>68566.97867999999</v>
+        <v>74632.73267000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>70045.41354000001</v>
+        <v>72369.38961</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>97834.77641999999</v>
+        <v>92042.25794000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>102124.86088</v>
+        <v>103057.06393</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>106728.80484</v>
+        <v>98560.45450000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>83840.69662</v>
+        <v>92864.27583000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>106231.41352</v>
+        <v>108877.20326</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>228532.23714</v>
+        <v>258321.49697</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>215780.79261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>203001.66066</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>184575.383</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>49734.98555</v>
+        <v>46155.82387000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>37468.9</v>
+        <v>39011.4056</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>44018.5626</v>
+        <v>41205.71264000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>36601.70496</v>
+        <v>37409.59704000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>57838.33644000001</v>
+        <v>59587.65542</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>58990.63179000001</v>
+        <v>67532.31428000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>51427.15086000001</v>
+        <v>127864.32894</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>55094.94711</v>
+        <v>174433.41297</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>75483.5208</v>
+        <v>140472.75669</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>403420.0143600001</v>
+        <v>129841.33375</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>274386.16831</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>176191.72881</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>246785.389</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>14501.52227</v>
+        <v>15145.46567</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>9570.629229999999</v>
+        <v>22653.15646</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>19420.30522</v>
+        <v>104510.079</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>14847.77761</v>
+        <v>21786.3761</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>25495.6673</v>
+        <v>34461.99416999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>28983.8933</v>
+        <v>35063.57561000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>31329.58279</v>
+        <v>46081.34849000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>25381.86793</v>
+        <v>42793.44424</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>35419.27385000001</v>
+        <v>45364.50193000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>123410.3951</v>
+        <v>143139.39972</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>140775.584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>137476.54681</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>267413.495</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>706501.9896</v>
+        <v>831425.06283</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>633727.1451900001</v>
+        <v>776214.2152399999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>927315.12099</v>
+        <v>1135947.74745</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>546672.03668</v>
+        <v>714751.4924600001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1444550.93344</v>
+        <v>1843225.94089</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1331056.70869</v>
+        <v>1735002.08272</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2467054.05203</v>
+        <v>3246415.77915</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1911144.72703</v>
+        <v>2844242.707099999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2154764.56495</v>
+        <v>2772643.58189</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>16282453.73411</v>
+        <v>18515242.56147</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7584133.02572</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>8683150.041649999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15754438.724</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>5190.17365</v>
+        <v>6626.824739999999</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>3723.19377</v>
+        <v>4687.304099999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>3589.25712</v>
+        <v>4953.07409</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>3227.9877</v>
+        <v>4119.50409</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>5876.553379999999</v>
+        <v>7370.977740000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>9330.137280000001</v>
+        <v>11498.21261</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>9762.575280000001</v>
+        <v>11273.86988</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>7903.815250000001</v>
+        <v>11074.13629</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>7145.369780000001</v>
+        <v>8688.904509999998</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>67630.83797999998</v>
+        <v>74062.79032000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>63979.46719</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>71154.90154000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>47884.035</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>8676.51167</v>
+        <v>8155.255839999999</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>10445.39623</v>
+        <v>13770.15782</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>15044.30354</v>
+        <v>14194.42141</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>11088.68197</v>
+        <v>10490.96552</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>23827.68034</v>
+        <v>24299.78792</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>25588.99549</v>
+        <v>25963.32426</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>31949.76344</v>
+        <v>31280.23607</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>40001.35948</v>
+        <v>41296.42595</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>60697.40993</v>
+        <v>59418.70198</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>177890.07275</v>
+        <v>157285.34488</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>73528.83975</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>69600.01465</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>179990.718</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>388281.1287400001</v>
+        <v>405604.0915</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>452680.82548</v>
+        <v>518500.80541</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>490210.86689</v>
+        <v>550476.66162</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>507475.3003</v>
+        <v>579002.80366</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>717354.7285000001</v>
+        <v>782136.93493</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>743685.54016</v>
+        <v>850088.0566600001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>804543.2448099998</v>
+        <v>881450.30473</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>883515.7211600001</v>
+        <v>1098110.85623</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>898042.0219700001</v>
+        <v>1048077.78278</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1971590.80515</v>
+        <v>2072548.98863</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2235698.89347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2496037.703650001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2330185.544</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1153671.05914</v>
+        <v>1386958.41699</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>950843.0805299999</v>
+        <v>1129451.78316</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1352457.9924</v>
+        <v>1735424.03256</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>989891.37639</v>
+        <v>1179318.28472</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2110747.89906</v>
+        <v>2739719.58323</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2043229.8134</v>
+        <v>2547409.082350001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3154953.92729</v>
+        <v>4271673.04543</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2681298.61781</v>
+        <v>3968040.79398</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2866103.214499999</v>
+        <v>3800185.021309999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>20154404.03577</v>
+        <v>22385387.03959</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9505745.709460001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>10820716.65249</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>17467313.035</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>86766.91829000002</v>
+        <v>77145.21459</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>70094.37443</v>
+        <v>70917.79736</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>74076.61768000001</v>
+        <v>77719.74644</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>86690.73628</v>
+        <v>88061.77829999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>126223.90885</v>
+        <v>129116.45186</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>139051.85598</v>
+        <v>142675.56341</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>133077.76164</v>
+        <v>138214.01176</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>131888.32416</v>
+        <v>139638.94557</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>142925.69517</v>
+        <v>149547.19445</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>341630.2081400001</v>
+        <v>341872.7823500001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>384881.9809199999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>397096.36651</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>483834.063</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>201401.4264</v>
+        <v>317662.40565</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>113890.50721</v>
+        <v>119674.91349</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>133720.50148</v>
+        <v>141561.4477</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>190681.63684</v>
+        <v>210093.44169</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>248510.41922</v>
+        <v>269245.67617</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>298908.43094</v>
+        <v>315264.4624</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>267783.13366</v>
+        <v>376554.0354</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>346458.34321</v>
+        <v>382560.46477</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>264680.02497</v>
+        <v>342631.8457600001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1682892.14904</v>
+        <v>1178660.34293</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>884392.6653400001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>899364.34233</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>627577.333</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>6966.96231</v>
+        <v>8400.93621</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>5741.96632</v>
+        <v>4911.291080000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>11847.0831</v>
+        <v>22150.15356999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>9865.67362</v>
+        <v>6420.09663</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>20295.87631</v>
+        <v>18136.71565</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>11325.98242</v>
+        <v>28356.70915</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>12244.30609</v>
+        <v>19428.73004</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>10275.6711</v>
+        <v>9585.61527</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>33115.18167</v>
+        <v>34994.30268</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>96696.52344000002</v>
+        <v>80385.70811000002</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>53840.43559000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>53847.52606</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>162194.184</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>703353.08306</v>
+        <v>834548.9939599996</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>605533.0081000001</v>
+        <v>735063.8860499999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>937845.0520600001</v>
+        <v>1292605.57134</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>536531.98459</v>
+        <v>659815.68695</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1469686.72716</v>
+        <v>1986472.63495</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1322814.56578</v>
+        <v>1781953.02975</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2445332.71702</v>
+        <v>3422817.569060001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1866280.90602</v>
+        <v>3026968.842300001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2117260.0663</v>
+        <v>2927982.7587</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>17173260.58481</v>
+        <v>19857903.17114</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>7482672.32348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>8621850.53806</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>15414660.383</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>3948.25014</v>
+        <v>5153.692319999999</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>2306.06957</v>
+        <v>4170.643929999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>3610.76526</v>
+        <v>3581.645860000001</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>3923.55122</v>
+        <v>4556.017129999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>9299.95751</v>
+        <v>12538.90948</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>10325.55335</v>
+        <v>11504.85761</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>9713.501470000001</v>
+        <v>12965.85258</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>9770.207630000001</v>
+        <v>12086.28856</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>9114.24064</v>
+        <v>11875.2516</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>87937.54833999999</v>
+        <v>98390.88891000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>66232.39624</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>76438.42541999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>60321.505</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>9221.451010000001</v>
+        <v>9636.93391</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>10198.86555</v>
+        <v>9330.089810000001</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>14750.50732</v>
+        <v>15954.6532</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>6741.83196</v>
+        <v>6722.590249999999</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>16966.5378</v>
+        <v>16213.48733</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>23101.95861</v>
+        <v>19056.05705</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>29468.39035</v>
+        <v>26542.40425</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>25453.86286</v>
+        <v>24847.20713</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>37874.35125</v>
+        <v>34150.15551999999</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>166677.61564</v>
+        <v>148937.93209</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>56526.19104999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>50532.92771</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>107351.14</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>142012.96793</v>
+        <v>134410.24035</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>143078.28935</v>
+        <v>185383.16144</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>176607.4655</v>
+        <v>181850.81445</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>155455.96188</v>
+        <v>203648.67377</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>219764.47221</v>
+        <v>307995.70779</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>237701.46632</v>
+        <v>248598.40298</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>257334.11706</v>
+        <v>275150.44234</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>291171.30283</v>
+        <v>372353.4303799999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>261133.6545</v>
+        <v>299003.5126</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>605309.40636</v>
+        <v>679236.2140599999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>577199.7168399998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>721586.5264</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>611374.427</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1440698.20667</v>
+        <v>1561041.27945</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1173526.24502</v>
+        <v>1238103.4569</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1397414.81029</v>
+        <v>1533148.64576</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1709717.11475</v>
+        <v>1920748.82542</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2315664.497769999</v>
+        <v>2584705.85408</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2674051.07835</v>
+        <v>3064186.29325</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3022648.44313</v>
+        <v>3652886.001260001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3256850.4771</v>
+        <v>4087543.26838</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3493170.157329999</v>
+        <v>4539489.607</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>10915903.46505</v>
+        <v>11880358.44217</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>10680208.98906</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>11691360.36978</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9590127.810000001</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1356892.51521</v>
+        <v>1466108.74312</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1106157.75132</v>
+        <v>1187557.84728</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1340684.57955</v>
+        <v>1466053.71492</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1640646.603</v>
+        <v>1843021.21661</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2214687.61392</v>
+        <v>2476439.73133</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2567170.77311</v>
+        <v>2936415.08446</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2899935.964160001</v>
+        <v>3480564.84027</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3121160.527819999</v>
+        <v>3882591.03341</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3338871.48251</v>
+        <v>4317452.89335</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>10395536.10768</v>
+        <v>11281173.30557</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>10050813.29505</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>11087833.59567</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>9037628.378</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>83805.69145999999</v>
+        <v>94932.53633000002</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>67368.49370000002</v>
+        <v>50545.60962</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>56730.23074</v>
+        <v>67094.93083999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>69070.51175000001</v>
+        <v>77727.60881000002</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>100976.88385</v>
+        <v>108266.12275</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>106880.30524</v>
+        <v>127771.20879</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>122712.47897</v>
+        <v>172321.16099</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>135689.94928</v>
+        <v>204952.23497</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>154298.67482</v>
+        <v>222036.71365</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>520367.3573699999</v>
+        <v>599185.1365999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>629395.6940099999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>603526.77411</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>552499.432</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2287991.586179999</v>
+        <v>2203547.75911</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3064297.75629</v>
+        <v>3190878.75145</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3432254.12806</v>
+        <v>3582083.83089</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3180228.65807</v>
+        <v>3260782.64406</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4884368.925609999</v>
+        <v>4920202.86301</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5130828.346230001</v>
+        <v>5367373.12035</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5623039.11604</v>
+        <v>5582239.093800001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5009856.80293</v>
+        <v>5161968.340299999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>6531869.930179999</v>
+        <v>6661247.046079999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>9988212.105</v>
+        <v>10100429.35351</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>12016397.40067</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>12966385.12479</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>19468612.63</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>453768.77265</v>
+        <v>482803.9539199999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>524119.9851699999</v>
+        <v>535871.294</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>594006.2244100001</v>
+        <v>655969.4307400001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>626726.1996300002</v>
+        <v>707900.8777799999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1224158.37352</v>
+        <v>1041650.47254</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1046505.55419</v>
+        <v>1186799.99584</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1135610.06797</v>
+        <v>1383003.97489</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1283894.13034</v>
+        <v>1540290.57834</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1366829.84727</v>
+        <v>1654321.12069</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2696189.5115</v>
+        <v>2772509.34753</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3040073.61501</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3262141.13552</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3987389.327</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>19780.53525</v>
+        <v>21673.46056</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>10491.68212</v>
+        <v>11379.55357</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>11710.61323</v>
+        <v>10283.8508</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>16100.56071</v>
+        <v>17773.18965</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>39608.4927</v>
+        <v>20733.13081</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>21312.43064000001</v>
+        <v>22948.90307</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>16564.82179</v>
+        <v>18016.74289</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>21008.80928</v>
+        <v>16916.46376</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>17771.46477</v>
+        <v>15580.85028</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>39852.84580000001</v>
+        <v>38139.20091000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>77634.30089</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>75973.21821000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>38926.545</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>433988.2374</v>
+        <v>461130.4933599999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>513628.3030499999</v>
+        <v>524491.74043</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>582295.6111800001</v>
+        <v>645685.5799400002</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>610625.6389200001</v>
+        <v>690127.68813</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1184549.88082</v>
+        <v>1020917.34173</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1025193.12355</v>
+        <v>1163851.09277</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1119045.24618</v>
+        <v>1364987.232</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1262885.32106</v>
+        <v>1523374.11458</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1349058.3825</v>
+        <v>1638740.27041</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2656336.6657</v>
+        <v>2734370.14662</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2962439.31412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3186167.91731</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3948462.782</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>389616.7231</v>
+        <v>447077.22855</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>546841.6693899999</v>
+        <v>448750.97911</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2899117.34663</v>
+        <v>2957562.163239999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>515705.69976</v>
+        <v>585823.0579200002</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>742988.50924</v>
+        <v>875739.06687</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1878943.1281</v>
+        <v>1868910.46848</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>831490.57011</v>
+        <v>925409.21086</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3060547.85419</v>
+        <v>3128957.20971</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1027509.29129</v>
+        <v>1303659.90416</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4257512.95701</v>
+        <v>4761080.38212</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2132859.3934</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2136349.56613</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2524987.398</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>13536.62526</v>
+        <v>9680.673639999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>27442.35243</v>
+        <v>26369.47795</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>14448.20389</v>
+        <v>16097.44219</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>12669.6482</v>
+        <v>13278.50603</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>12550.84225</v>
+        <v>23928.30181</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>12361.08929</v>
+        <v>15598.12917</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>12189.28969</v>
+        <v>18628.20657</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>17143.30717</v>
+        <v>22585.85647</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>16610.92687</v>
+        <v>23665.23222</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>29035.14707</v>
+        <v>37983.61820000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>28263.35739</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>26158.58613</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>33162.181</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>27092.06292</v>
+        <v>31460.56845</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>30342.11732</v>
+        <v>33037.2543</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>35456.17655</v>
+        <v>45640.26793</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>25097.37943</v>
+        <v>28784.45035</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>33805.71421</v>
+        <v>28918.69229</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>39180.94052999999</v>
+        <v>38035.39284</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>30607.78924</v>
+        <v>29234.20972</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>73253.47901</v>
+        <v>52149.60463</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>45622.48722</v>
+        <v>54418.24077</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>75179.8281</v>
+        <v>79262.61589999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>121193.82005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>116867.22894</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>104063.295</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>348988.03492</v>
+        <v>405935.98646</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>489057.19964</v>
+        <v>389344.24686</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2849212.966190001</v>
+        <v>2895824.45312</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>477938.67213</v>
+        <v>543760.1015400001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>696631.9527800002</v>
+        <v>822892.07277</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1827401.09828</v>
+        <v>1815276.94647</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>788693.49118</v>
+        <v>877546.79457</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2970151.06801</v>
+        <v>3054221.74861</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>965275.8771999999</v>
+        <v>1225576.43117</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>4153297.98184</v>
+        <v>4643834.148019999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1983402.21596</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1993323.75106</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2387761.922</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2352143.63573</v>
+        <v>2239274.48448</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3041576.07207</v>
+        <v>3277999.066339999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1127143.00584</v>
+        <v>1280491.09839</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3291249.157939999</v>
+        <v>3382860.46392</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5365538.789890002</v>
+        <v>5086114.26868</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4298390.77232</v>
+        <v>4685262.647709999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>5927158.613899998</v>
+        <v>6039833.857830001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3233203.07908</v>
+        <v>3573301.70893</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>6871190.486160002</v>
+        <v>7011908.262610001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>8426888.65949</v>
+        <v>8111858.31892</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>12923611.62228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>14092176.69418</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>20931014.559</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>570143.51902</v>
+        <v>568742.4730400001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>652052.3814900002</v>
+        <v>654501.44643</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>771099.0912499998</v>
+        <v>785230.9516199998</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>758730.3831099999</v>
+        <v>771442.798</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1153938.96942</v>
+        <v>1184529.74066</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1213007.537</v>
+        <v>1248272.91017</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1335804.33392</v>
+        <v>1381251.11056</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1316923.68419</v>
+        <v>1372120.60035</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1484206.13503</v>
+        <v>1551514.79543</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3148517.729540001</v>
+        <v>3196227.194660001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3324927.84783</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3432274.63002</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4692956.887</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1782000.11671</v>
+        <v>1670532.01144</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2389523.69058</v>
+        <v>2623497.61991</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>356043.9145900001</v>
+        <v>495260.14677</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2532518.77483</v>
+        <v>2611417.66592</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4211599.82047</v>
+        <v>3901584.52802</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3085383.23532</v>
+        <v>3436989.73754</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4591354.27998</v>
+        <v>4658582.74727</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1916279.39489</v>
+        <v>2201181.10858</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>5386984.351129999</v>
+        <v>5460393.46718</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>5278370.929950001</v>
+        <v>4915631.12426</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9598683.77445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>10659902.06416</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>16238057.672</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>42842</v>
+        <v>36310</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>46880</v>
+        <v>39220</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>52125</v>
+        <v>44073</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>56031</v>
+        <v>47384</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>66282</v>
+        <v>54948</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>70959</v>
+        <v>58345</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>75686</v>
+        <v>62132</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>79826</v>
+        <v>64299</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>85747</v>
+        <v>68537</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>60177</v>
+        <v>51504</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>63021</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>53411</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>58509</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>